--- a/biology/Botanique/Cyprès_du_Bhoutan/Cyprès_du_Bhoutan.xlsx
+++ b/biology/Botanique/Cyprès_du_Bhoutan/Cyprès_du_Bhoutan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_du_Bhoutan</t>
+          <t>Cyprès_du_Bhoutan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cupressus cashmeriana
 Cupressus cashmeriana, le Cyprès du Bhoutan, est une espèce de plantes de la famille des Cupressacées. C'est un arbre originaire de l'Arunachal Pradesh (Nord-Est de l'Inde). Il y pousse à des altitudes comprises entre 1 250 et 2 800 m.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_du_Bhoutan</t>
+          <t>Cyprès_du_Bhoutan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un conifère de taille moyenne à grande pouvant atteindre 20 à 45 m de haut, rarement beaucoup plus, et un diamètre de tronc de 3 mètres. (Au Bhoutan le Cupressus himalaica atteint une taille de 91 mètres, ce qui en fait l'arbre le plus haut du continent asiatique.) Le feuillage pousse en rameaux nettement pleureurs de ramules très fines, aplaties, de couleur bleu-vert. Les feuilles sont en forme d'écailles de 1 à 2 mm de long, et jusqu'à 5 mm de long sur les pousses principales ; les jeunes arbres, jusqu'à cinq ans, ont un feuillage juvénile formé de feuilles en aiguilles souples de 3 à 8 mm de long.
-Les cônes femelles, ovoïdes, de 10 à 33 mm de long sur 10 à 30 mm de large[1], sont constitués de 8 à 14 écailles. Ils sont vert foncé devenant brun foncé à la maturation, au bout de 24 mois après la pollinisation. Les cônes s'ouvrent à maturité pour relâcher les graines.
+Les cônes femelles, ovoïdes, de 10 à 33 mm de long sur 10 à 30 mm de large, sont constitués de 8 à 14 écailles. Ils sont vert foncé devenant brun foncé à la maturation, au bout de 24 mois après la pollinisation. Les cônes s'ouvrent à maturité pour relâcher les graines.
 Les cônes mâles, qui ont 3 à 5 mm de long, libèrent leur pollen au début du printemps.
 Des individus ayant jusqu'à 95 mètres de haut ont été récemment signalés (Farjon 2005), mais les mesures doivent être vérifiées. Si c'est confirmé, ce serait le plus grand arbre d'Asie.
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_du_Bhoutan</t>
+          <t>Cyprès_du_Bhoutan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Symbolique et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cupressus cashmeriana ne pousse pas naturellement au Bhoutan. C'est une autre espèce, Cupressus himalaica, qui est l'arbre national du Bhoutan, où il est souvent associé à des sites religieux ; il est largement planté autour des monastères et des temples.
 Le Cupressus cashmeriana est un arbre couramment employé à des fins ornementales dans le sud de la France où il s'est acclimaté. Il n'a été introduit en Angleterre que récemment par Keith Rushforth. Le Cupressus cashmeriana, contrairement au Cupressus himalaica, est naturellement d'un vert glauque, tandis que seulement une variété de cette seconde espèce à cette caractéristique qui a été sélectionnée (cyprès de l'Isola Madre sur le lac Majeur en Italie). Les deux espèces ont des branches au port pleureur.
